--- a/input_spreadsheets/Tanzania/2017Sep/regions/InputForCode_Iringa_IYCF.xlsx
+++ b/input_spreadsheets/Tanzania/2017Sep/regions/InputForCode_Iringa_IYCF.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/2017Sep/regions/IYCFonly/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="460" windowWidth="23760" windowHeight="15460" tabRatio="500" firstSheet="16" activeTab="20"/>
+    <workbookView xWindow="1840" yWindow="460" windowWidth="23760" windowHeight="15460" tabRatio="500" firstSheet="18" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
@@ -40,11 +35,11 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -1242,7 +1237,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="58">
+  <cellStyleXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1301,8 +1296,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1365,8 +1362,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="58">
+  <cellStyles count="60">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1396,6 +1394,7 @@
     <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1424,6 +1423,7 @@
     <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2845,12 +2845,12 @@
       <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>170818</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>47890.177178531521</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>56308.622536681134</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>70</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>72</v>
       </c>
@@ -2910,6 +2910,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2921,12 +2926,12 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -2949,7 +2954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2972,7 +2977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>46</v>
       </c>
@@ -2992,7 +2997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>47</v>
       </c>
@@ -3012,7 +3017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>48</v>
       </c>
@@ -3032,7 +3037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3055,7 +3060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>46</v>
       </c>
@@ -3075,7 +3080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>47</v>
       </c>
@@ -3095,7 +3100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>48</v>
       </c>
@@ -3115,7 +3120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -3138,7 +3143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>46</v>
       </c>
@@ -3158,7 +3163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
@@ -3178,7 +3183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
@@ -3198,7 +3203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -3221,7 +3226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>46</v>
       </c>
@@ -3241,7 +3246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>47</v>
       </c>
@@ -3261,7 +3266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>48</v>
       </c>
@@ -3281,7 +3286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -3304,7 +3309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>46</v>
       </c>
@@ -3324,7 +3329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>47</v>
       </c>
@@ -3344,7 +3349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>48</v>
       </c>
@@ -3364,7 +3369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -3387,7 +3392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="B23" s="5" t="s">
         <v>46</v>
       </c>
@@ -3407,7 +3412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="B24" s="5" t="s">
         <v>47</v>
       </c>
@@ -3427,7 +3432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="B25" s="5" t="s">
         <v>48</v>
       </c>
@@ -3447,7 +3452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -3470,7 +3475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="B27" s="5" t="s">
         <v>46</v>
       </c>
@@ -3490,7 +3495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="B28" s="5" t="s">
         <v>47</v>
       </c>
@@ -3510,7 +3515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
       <c r="B29" s="5" t="s">
         <v>48</v>
       </c>
@@ -3532,6 +3537,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3543,13 +3553,13 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -3566,7 +3576,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -3585,7 +3595,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>21</v>
       </c>
@@ -3604,7 +3614,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
@@ -3623,7 +3633,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
@@ -3642,7 +3652,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
@@ -3661,7 +3671,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>28</v>
       </c>
@@ -3680,7 +3690,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>54</v>
       </c>
@@ -3699,7 +3709,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>31</v>
       </c>
@@ -3718,113 +3728,118 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7" ht="15.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7" ht="15.75" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7" ht="15.75" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7" ht="15.75" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7" ht="15.75" customHeight="1">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7" ht="15.75" customHeight="1">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7" ht="15.75" customHeight="1">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7" ht="15.75" customHeight="1">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7" ht="15.75" customHeight="1">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7" ht="15.75" customHeight="1">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7" ht="15.75" customHeight="1">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7" ht="15.75" customHeight="1">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3836,9 +3851,9 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3852,7 +3867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="5">
         <v>45</v>
       </c>
@@ -3868,6 +3883,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3877,12 +3897,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>55</v>
       </c>
@@ -3902,7 +3922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>45</v>
       </c>
@@ -3922,7 +3942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>46</v>
       </c>
@@ -3942,7 +3962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>47</v>
       </c>
@@ -3962,7 +3982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>48</v>
       </c>
@@ -3984,6 +4004,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3995,9 +4020,9 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -4017,7 +4042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -4039,6 +4064,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4050,9 +4080,9 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
@@ -4066,7 +4096,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -4082,6 +4112,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4093,12 +4128,12 @@
       <selection activeCell="E30" sqref="E29:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4118,7 +4153,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>73</v>
       </c>
@@ -4138,7 +4173,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -4146,7 +4181,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4154,7 +4189,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -4165,6 +4200,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4174,12 +4214,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="70.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>76</v>
       </c>
@@ -4199,7 +4239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>57</v>
       </c>
@@ -4219,7 +4259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>58</v>
       </c>
@@ -4239,7 +4279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
@@ -4259,7 +4299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>60</v>
       </c>
@@ -4281,6 +4321,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4290,13 +4335,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="43.1640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4316,7 +4361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>79</v>
       </c>
@@ -4338,6 +4383,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4347,12 +4397,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -4369,7 +4419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="14">
       <c r="A2" s="11" t="s">
         <v>45</v>
       </c>
@@ -4386,14 +4436,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4402,6 +4452,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4413,13 +4468,13 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -4427,7 +4482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="4">
         <v>2017</v>
       </c>
@@ -4435,7 +4490,7 @@
         <v>48815.694000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="4">
         <v>2018</v>
       </c>
@@ -4443,7 +4498,7 @@
         <v>49741.11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="4">
         <v>2019</v>
       </c>
@@ -4451,7 +4506,7 @@
         <v>50897.88</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="4">
         <v>2020</v>
       </c>
@@ -4459,7 +4514,7 @@
         <v>51823.296000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="4">
         <v>2021</v>
       </c>
@@ -4467,7 +4522,7 @@
         <v>52748.712</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="4">
         <v>2022</v>
       </c>
@@ -4475,7 +4530,7 @@
         <v>53905.482000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="4">
         <v>2023</v>
       </c>
@@ -4483,7 +4538,7 @@
         <v>55062.252</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="4">
         <v>2024</v>
       </c>
@@ -4491,7 +4546,7 @@
         <v>55987.667999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="4">
         <v>2025</v>
       </c>
@@ -4499,7 +4554,7 @@
         <v>57375.792000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="4">
         <v>2026</v>
       </c>
@@ -4507,7 +4562,7 @@
         <v>58532.561999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="4">
         <v>2027</v>
       </c>
@@ -4515,7 +4570,7 @@
         <v>59689.332000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
       <c r="A13" s="4">
         <v>2028</v>
       </c>
@@ -4523,7 +4578,7 @@
         <v>60846.101999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="4">
         <v>2029</v>
       </c>
@@ -4531,7 +4586,7 @@
         <v>62234.226000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
       <c r="A15" s="4">
         <v>2030</v>
       </c>
@@ -4541,6 +4596,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4548,11 +4608,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.83203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -4560,7 +4620,7 @@
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4574,7 +4634,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -4591,7 +4651,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
@@ -4608,7 +4668,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -4622,7 +4682,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -4639,7 +4699,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>78</v>
       </c>
@@ -4656,12 +4716,12 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="35">
-        <v>0</v>
+      <c r="B7" s="36">
+        <v>0.72626048365939888</v>
       </c>
       <c r="C7" s="34">
         <v>0.95</v>
@@ -4673,72 +4733,72 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
@@ -4746,6 +4806,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4753,11 +4818,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
@@ -4767,7 +4832,7 @@
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4792,7 +4857,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -4815,7 +4880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
@@ -4840,7 +4905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -4864,7 +4929,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -4887,7 +4952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>78</v>
       </c>
@@ -4910,7 +4975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -4933,65 +4998,65 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
@@ -4999,6 +5064,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5010,12 +5080,12 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -5035,7 +5105,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -5055,7 +5125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="B3" t="s">
         <v>69</v>
       </c>
@@ -5074,7 +5144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -5094,7 +5164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="B5" t="s">
         <v>69</v>
       </c>
@@ -5111,14 +5181,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="5"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -5128,6 +5198,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5139,12 +5214,12 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5167,7 +5242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5190,7 +5265,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5210,7 +5285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -5233,7 +5308,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5257,6 +5332,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5268,12 +5348,12 @@
       <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5296,7 +5376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5319,7 +5399,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5339,7 +5419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -5365,7 +5445,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5389,6 +5469,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5400,12 +5485,12 @@
       <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5428,7 +5513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5451,7 +5536,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5471,7 +5556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -5497,7 +5582,7 @@
         <v>0.496</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5521,6 +5606,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5532,9 +5622,9 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -5545,7 +5635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="29">
         <v>30</v>
       </c>
@@ -5560,6 +5650,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5571,12 +5666,12 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -5596,7 +5691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5616,7 +5711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -5636,7 +5731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -5656,7 +5751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -5676,7 +5771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -5696,7 +5791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -5716,7 +5811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -5736,7 +5831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -5756,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -5776,7 +5871,7 @@
         <v>0.1368</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -5796,7 +5891,7 @@
         <v>0.20660000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -5816,7 +5911,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -5836,7 +5931,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -5856,7 +5951,7 @@
         <v>8.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -5876,7 +5971,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -5896,7 +5991,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -5916,7 +6011,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -5943,6 +6038,11 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" max="1048575" man="1"/>
   </colBreaks>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5954,9 +6054,9 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
@@ -5979,7 +6079,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -6007,7 +6107,7 @@
         <v>17.359299662804318</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6032,7 +6132,7 @@
         <v>35.030467779056146</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -6052,7 +6152,7 @@
         <v>29.818352216259193</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -6072,7 +6172,7 @@
         <v>17.791880341880344</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -6095,7 +6195,7 @@
         <v>48.515000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -6115,7 +6215,7 @@
         <v>48.515000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -6135,7 +6235,7 @@
         <v>2.2399999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -6155,7 +6255,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
@@ -6178,7 +6278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>46</v>
       </c>
@@ -6198,7 +6298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
@@ -6218,7 +6318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
@@ -6243,6 +6343,11 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6254,9 +6359,9 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -6267,7 +6372,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="30">
         <v>2.2251162790697675E-2</v>
       </c>
@@ -6280,6 +6385,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6291,9 +6401,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -6313,7 +6423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -6333,7 +6443,7 @@
         <v>1.3840677966101695</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -6357,6 +6467,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6366,9 +6481,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -6391,7 +6506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -6414,7 +6529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6434,7 +6549,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -6454,7 +6569,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -6474,7 +6589,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -6497,7 +6612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -6517,7 +6632,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -6537,7 +6652,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -6557,7 +6672,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -6580,7 +6695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
@@ -6600,7 +6715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
@@ -6620,7 +6735,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
@@ -6640,7 +6755,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -6663,7 +6778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
@@ -6683,7 +6798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
@@ -6703,7 +6818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
@@ -6723,7 +6838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -6746,7 +6861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
@@ -6766,7 +6881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
@@ -6786,7 +6901,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
@@ -6808,6 +6923,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6817,9 +6937,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -6842,7 +6962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -6865,7 +6985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6885,7 +7005,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -6905,7 +7025,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -6925,7 +7045,7 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -6948,7 +7068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -6968,7 +7088,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -6988,7 +7108,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -7008,7 +7128,7 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -7031,7 +7151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
@@ -7051,7 +7171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
@@ -7071,7 +7191,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
@@ -7091,7 +7211,7 @@
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -7114,7 +7234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
@@ -7134,7 +7254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
@@ -7154,7 +7274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
@@ -7174,7 +7294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -7197,7 +7317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
@@ -7217,7 +7337,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
@@ -7237,7 +7357,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
@@ -7259,5 +7379,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>